--- a/Excels/data/2010.xlsx
+++ b/Excels/data/2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854EB37C-F0AC-496D-B417-050B4D9CB44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31294251-7ED5-4685-8325-09E0B709F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29265" yWindow="6030" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{654F2A9C-53D7-46C2-B0E4-8C2EDE5C0237}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{654F2A9C-53D7-46C2-B0E4-8C2EDE5C0237}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="159">
   <si>
     <t>Round</t>
   </si>
@@ -581,6 +581,12 @@
   </si>
   <si>
     <t>1-12, 14-18</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -635,14 +641,17 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -803,8 +812,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{5C95BF8A-21D0-445F-B469-057744959757}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -812,6 +821,7 @@
       <queryTableField id="4" name="No." tableColumnId="4"/>
       <queryTableField id="5" name="Rider" tableColumnId="5"/>
       <queryTableField id="6" name="Rounds" tableColumnId="6"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -827,9 +837,9 @@
   <autoFilter ref="A1:D19" xr:uid="{D555CC22-1320-407A-A203-66422669EA14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3AFE1787-B893-4C17-A615-6A07B6F526E7}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{05BBDAB0-411D-4F2C-8367-46429A0643E3}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{ED2577A0-A176-4257-B01D-6344FF1806AC}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{E7354CC4-D643-4C4E-9363-E72C77D0BDCA}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{05BBDAB0-411D-4F2C-8367-46429A0643E3}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{ED2577A0-A176-4257-B01D-6344FF1806AC}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{E7354CC4-D643-4C4E-9363-E72C77D0BDCA}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,27 +850,27 @@
   <autoFilter ref="A1:W23" xr:uid="{D1AC1676-0B1F-45E3-8090-E1193C2ED694}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{385B2A79-C01D-4996-8708-38FFF5DA0077}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{1C4965DA-0C03-4B20-BE50-F4A7A5ADBD4C}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{AB386643-2521-4DAE-980F-D01596574716}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{D88B0B15-D967-4145-A86E-B605F6001AC6}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C94556EF-93B8-4C10-A088-7738830E7CE9}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{C7CA11BC-02CD-43BC-A9B4-B923B70EF32B}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{32C61724-12C5-4FAC-8AB5-9BC813DEA77F}" uniqueName="7" name="FRA" queryTableFieldId="7" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{D88DB32F-4BB1-4C89-A75F-22D1DD77278E}" uniqueName="8" name="ITA" queryTableFieldId="8" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{9E6EDA54-C6AD-4936-9BBF-6505CF9F0910}" uniqueName="9" name="GBR" queryTableFieldId="9" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{91EDE89D-3711-407E-94FD-ED01703D6111}" uniqueName="10" name="NED" queryTableFieldId="10" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{32DF872C-2F1F-4E9A-A056-FE6D8896FBBA}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{E5969D3F-14E9-4229-B1EF-0A1D694A05C7}" uniqueName="12" name="GER" queryTableFieldId="12" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{DA5B891E-7FAE-4CF2-81C5-2B6D00D8D1BA}" uniqueName="13" name="USA" queryTableFieldId="13" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{ADD2D1A8-ECED-40A7-96B5-860B6854694E}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{BE7E6880-A0C3-4FFD-906D-D33ED87B3621}" uniqueName="15" name="INP" queryTableFieldId="15" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{A412670A-6D75-4F6B-9ACA-62136F0E3046}" uniqueName="16" name="RSM" queryTableFieldId="16" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{4F0C804B-AC90-4B76-AC8D-B9E5DA98FC9C}" uniqueName="17" name="ARA" queryTableFieldId="17" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{C5298E20-0844-4ECF-944B-9CAC73A6FF01}" uniqueName="18" name="JPN" queryTableFieldId="18" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{32A2D2D5-8C93-46BC-ABD8-6133F8F14BCC}" uniqueName="19" name="MAL" queryTableFieldId="19" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{DBC4C03D-2075-45E0-9F68-4F44024DEAB6}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{DAFE09BF-9E3D-4C7A-9754-9591674F05B2}" uniqueName="21" name="POR" queryTableFieldId="21" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{3EDCFAAA-3395-4E42-82F5-AE831398ACB0}" uniqueName="22" name="VAL" queryTableFieldId="22" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1C4965DA-0C03-4B20-BE50-F4A7A5ADBD4C}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{AB386643-2521-4DAE-980F-D01596574716}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{D88B0B15-D967-4145-A86E-B605F6001AC6}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{C94556EF-93B8-4C10-A088-7738830E7CE9}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{C7CA11BC-02CD-43BC-A9B4-B923B70EF32B}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{32C61724-12C5-4FAC-8AB5-9BC813DEA77F}" uniqueName="7" name="FRA" queryTableFieldId="7" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{D88DB32F-4BB1-4C89-A75F-22D1DD77278E}" uniqueName="8" name="ITA" queryTableFieldId="8" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{9E6EDA54-C6AD-4936-9BBF-6505CF9F0910}" uniqueName="9" name="GBR" queryTableFieldId="9" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{91EDE89D-3711-407E-94FD-ED01703D6111}" uniqueName="10" name="NED" queryTableFieldId="10" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{32DF872C-2F1F-4E9A-A056-FE6D8896FBBA}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{E5969D3F-14E9-4229-B1EF-0A1D694A05C7}" uniqueName="12" name="GER" queryTableFieldId="12" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{DA5B891E-7FAE-4CF2-81C5-2B6D00D8D1BA}" uniqueName="13" name="USA" queryTableFieldId="13" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{ADD2D1A8-ECED-40A7-96B5-860B6854694E}" uniqueName="14" name="CZE" queryTableFieldId="14" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{BE7E6880-A0C3-4FFD-906D-D33ED87B3621}" uniqueName="15" name="INP" queryTableFieldId="15" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{A412670A-6D75-4F6B-9ACA-62136F0E3046}" uniqueName="16" name="RSM" queryTableFieldId="16" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{4F0C804B-AC90-4B76-AC8D-B9E5DA98FC9C}" uniqueName="17" name="ARA" queryTableFieldId="17" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{C5298E20-0844-4ECF-944B-9CAC73A6FF01}" uniqueName="18" name="JPN" queryTableFieldId="18" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{32A2D2D5-8C93-46BC-ABD8-6133F8F14BCC}" uniqueName="19" name="MAL" queryTableFieldId="19" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{DBC4C03D-2075-45E0-9F68-4F44024DEAB6}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{DAFE09BF-9E3D-4C7A-9754-9591674F05B2}" uniqueName="21" name="POR" queryTableFieldId="21" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{3EDCFAAA-3395-4E42-82F5-AE831398ACB0}" uniqueName="22" name="VAL" queryTableFieldId="22" dataDxfId="7"/>
     <tableColumn id="23" xr3:uid="{417AC78C-9D1C-4008-A187-303C5B63FA84}" uniqueName="23" name="Pts" queryTableFieldId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -868,16 +878,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6BEB5C2-53F2-4372-A1A2-01DCCE81CBE5}" name="Table_2" displayName="Table_2" ref="A1:G23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G23" xr:uid="{D6BEB5C2-53F2-4372-A1A2-01DCCE81CBE5}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CD2BE96E-F303-4C30-98BB-3355A227F577}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B1882A82-767C-4AEE-806C-6FF52D7C36F5}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{F67ACB0D-FC5F-424B-A96D-5CFE1F238281}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{722F6F50-625C-4CDB-A8A7-3A8F15CD6289}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6BEB5C2-53F2-4372-A1A2-01DCCE81CBE5}" name="Table_2" displayName="Table_2" ref="A1:H23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H23" xr:uid="{D6BEB5C2-53F2-4372-A1A2-01DCCE81CBE5}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CD2BE96E-F303-4C30-98BB-3355A227F577}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B1882A82-767C-4AEE-806C-6FF52D7C36F5}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F67ACB0D-FC5F-424B-A96D-5CFE1F238281}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{722F6F50-625C-4CDB-A8A7-3A8F15CD6289}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{42057C1A-9699-4F4D-BC62-EBBD57081B6F}" uniqueName="4" name="No." queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{51C97400-2FC6-4414-9026-948B766D5CAD}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{48AF262F-288D-468F-BF2F-880E38907B53}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{51C97400-2FC6-4414-9026-948B766D5CAD}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{48AF262F-288D-468F-BF2F-880E38907B53}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{ADE07566-B5D8-4352-BA33-B8D5BAF6A968}" uniqueName="8" name="Class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1212,13 +1223,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1226,13 +1237,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1240,13 +1251,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1254,13 +1265,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1268,13 +1279,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1282,13 +1293,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1296,13 +1307,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1310,13 +1321,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1324,13 +1335,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1338,13 +1349,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1352,13 +1363,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1366,13 +1377,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1380,13 +1391,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1394,13 +1405,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1408,13 +1419,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1422,13 +1433,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1436,13 +1447,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1450,13 +1461,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1575,67 +1586,67 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>135</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>134</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>132</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>133</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>133</v>
       </c>
       <c r="W2">
@@ -1646,65 +1657,64 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>132</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>139</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>139</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>137</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>106</v>
       </c>
       <c r="W3">
@@ -1715,61 +1725,58 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>136</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>135</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>140</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>134</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>133</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>132</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>134</v>
       </c>
       <c r="W4">
@@ -1780,67 +1787,67 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>132</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="O5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" t="s">
         <v>136</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>133</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="S5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="U5" t="s">
+        <v>138</v>
+      </c>
+      <c r="V5" t="s">
         <v>132</v>
       </c>
       <c r="W5">
@@ -1851,67 +1858,67 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>136</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>135</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" t="s">
         <v>132</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>132</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="T6" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" t="s">
         <v>134</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" t="s">
         <v>136</v>
       </c>
       <c r="W6">
@@ -1922,67 +1929,67 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>137</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>135</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>132</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>140</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>137</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>135</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>136</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" t="s">
         <v>135</v>
       </c>
       <c r="W7">
@@ -1993,67 +2000,67 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>137</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>136</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>140</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>140</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="P8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" t="s">
         <v>134</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>143</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>140</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" t="s">
         <v>135</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>136</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" t="s">
         <v>138</v>
       </c>
       <c r="W8">
@@ -2064,67 +2071,67 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="K9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s">
         <v>140</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" t="s">
         <v>144</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>106</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>140</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>137</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>140</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>135</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" t="s">
         <v>140</v>
       </c>
       <c r="W9">
@@ -2135,65 +2142,64 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>140</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" t="s">
         <v>145</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>146</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>146</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="Q10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" t="s">
         <v>89</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>145</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>145</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" t="s">
         <v>145</v>
       </c>
       <c r="W10">
@@ -2204,67 +2210,67 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>137</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>137</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" s="1" t="s">
+      <c r="O11" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" t="s">
         <v>145</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>144</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" t="s">
         <v>89</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>89</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" t="s">
         <v>146</v>
       </c>
       <c r="W11">
@@ -2275,67 +2281,67 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="O12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" t="s">
         <v>106</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>143</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>136</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>147</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" t="s">
         <v>106</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
         <v>106</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" t="s">
         <v>143</v>
       </c>
       <c r="W12">
@@ -2346,67 +2352,67 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>145</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>145</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>89</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>144</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>146</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>144</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>142</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>145</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" t="s">
         <v>137</v>
       </c>
       <c r="W13">
@@ -2417,67 +2423,67 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" t="s">
         <v>137</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>106</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>136</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" t="s">
         <v>143</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
         <v>144</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" t="s">
         <v>89</v>
       </c>
       <c r="W14">
@@ -2488,67 +2494,67 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>145</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>144</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>145</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>142</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="S15" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" t="s">
         <v>137</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V15" s="1" t="s">
+      <c r="U15" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" t="s">
         <v>144</v>
       </c>
       <c r="W15">
@@ -2559,57 +2565,52 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>143</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>145</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>106</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>143</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" t="s">
         <v>142</v>
       </c>
       <c r="W16">
@@ -2620,65 +2621,64 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>144</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>145</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
         <v>144</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="P17" t="s">
+        <v>138</v>
+      </c>
+      <c r="R17" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" t="s">
         <v>139</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>146</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" t="s">
         <v>138</v>
       </c>
       <c r="W17">
@@ -2689,65 +2689,63 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
         <v>146</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" t="s">
         <v>142</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>148</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>143</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>144</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
       <c r="W18">
         <v>43</v>
       </c>
@@ -2756,39 +2754,24 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>143</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>143</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>146</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
       <c r="W19">
         <v>11</v>
       </c>
@@ -2797,35 +2780,18 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>144</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
       <c r="W20">
         <v>5</v>
       </c>
@@ -2834,37 +2800,21 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>146</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
       <c r="W21">
         <v>4</v>
       </c>
@@ -2873,35 +2823,19 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V22" s="1" t="s">
+      <c r="U22" t="s">
+        <v>138</v>
+      </c>
+      <c r="V22" t="s">
         <v>148</v>
       </c>
       <c r="W22">
@@ -2912,35 +2846,18 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>148</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
       <c r="W23">
         <v>1</v>
       </c>
@@ -2955,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F083CCB-547F-4EEB-BD7F-11ABE8519A40}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,7 +2889,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2994,511 +2911,580 @@
       <c r="G1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>155</v>
       </c>
       <c r="E2">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>155</v>
       </c>
       <c r="E3">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>155</v>
       </c>
       <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>155</v>
       </c>
       <c r="E5">
         <v>71</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>155</v>
       </c>
       <c r="E6">
         <v>41</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>155</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>155</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>155</v>
       </c>
       <c r="E9">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>155</v>
       </c>
       <c r="E10">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>155</v>
       </c>
       <c r="E11">
         <v>58</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>155</v>
       </c>
       <c r="E12">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>155</v>
       </c>
       <c r="E13">
         <v>95</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>155</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>155</v>
       </c>
       <c r="E15">
         <v>64</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>155</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>155</v>
       </c>
       <c r="E17">
         <v>19</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>155</v>
       </c>
       <c r="E18">
         <v>65</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>155</v>
       </c>
       <c r="E19">
         <v>46</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>155</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>155</v>
       </c>
       <c r="E21">
         <v>99</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>155</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>155</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>67</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3603,1114 +3589,1114 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="R5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="I10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="N10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="I14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="H15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q15" s="3" t="s">
+      <c r="P15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="S15" s="3" t="s">
+      <c r="R15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q17" s="3" t="s">
+      <c r="M17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="K18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S22" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/data/2010.xlsx
+++ b/Excels/data/2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7AD51-F1DB-4364-A3F6-6C6B4BDAD88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027A1B9-031B-4422-9E1F-EBAEF0549FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18075" windowHeight="12255" tabRatio="851" activeTab="3" xr2:uid="{654F2A9C-53D7-46C2-B0E4-8C2EDE5C0237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="851" activeTab="6" xr2:uid="{654F2A9C-53D7-46C2-B0E4-8C2EDE5C0237}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5579" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5579" uniqueCount="551">
   <si>
     <t>Round</t>
   </si>
@@ -1782,6 +1782,9 @@
   </si>
   <si>
     <t>Colin Appleyard Macadam Racing</t>
+  </si>
+  <si>
+    <t>Raffaele de Rosa</t>
   </si>
 </sst>
 </file>
@@ -8274,8 +8277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCFCC07-878A-439F-A6D9-5F24EEA13CD8}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12786,7 +12789,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14273,7 +14276,7 @@
         <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
+        <v>550</v>
       </c>
       <c r="G57" t="s">
         <v>88</v>
@@ -15101,8 +15104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864AD9C7-A55D-4011-ADFF-3BF74D7C3BCB}">
   <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16805,7 +16808,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>236</v>
+        <v>550</v>
       </c>
       <c r="B32" t="s">
         <v>543</v>

--- a/Excels/data/2010.xlsx
+++ b/Excels/data/2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027A1B9-031B-4422-9E1F-EBAEF0549FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81E711A-B220-4F8C-A046-B57A7066150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="851" activeTab="6" xr2:uid="{654F2A9C-53D7-46C2-B0E4-8C2EDE5C0237}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="851" xr2:uid="{654F2A9C-53D7-46C2-B0E4-8C2EDE5C0237}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -2752,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99808AB4-D265-4A83-89D8-0348ACAF8E44}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5520D194-D503-4F06-B7EF-0B39C7AEE2EF}">
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,20 +3165,17 @@
       <c r="J2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>133</v>
@@ -3190,6 +3187,9 @@
         <v>133</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3222,14 +3222,11 @@
         <v>138</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="L3" s="2" t="s">
         <v>133</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>132</v>
@@ -3238,15 +3235,18 @@
         <v>132</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3281,31 +3281,31 @@
       <c r="J4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>132</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3340,31 +3340,31 @@
       <c r="J5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>134</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>136</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3399,31 +3399,31 @@
       <c r="J6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>135</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3458,31 +3458,31 @@
       <c r="J7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3517,31 +3517,31 @@
       <c r="J8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>136</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="R8" s="1" t="s">
         <v>138</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3576,31 +3576,31 @@
       <c r="J9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3635,31 +3635,31 @@
       <c r="J10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3694,31 +3694,31 @@
       <c r="J11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="L11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="Q11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3753,31 +3753,31 @@
       <c r="J12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>143</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="R12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3800,7 +3800,6 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3809,6 +3808,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3837,20 +3837,17 @@
       <c r="J14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="N14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>137</v>
@@ -3859,9 +3856,12 @@
         <v>137</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3896,31 +3896,31 @@
       <c r="J15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="R15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3955,33 +3955,33 @@
       <c r="J16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="P16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>325</v>
       </c>
@@ -4012,35 +4012,35 @@
       <c r="J17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S17" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>326</v>
       </c>
@@ -4071,33 +4071,33 @@
       <c r="J18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="O18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="Q18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>327</v>
       </c>
@@ -4128,35 +4128,35 @@
       <c r="J19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>142</v>
       </c>
       <c r="R19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>328</v>
       </c>
@@ -4187,35 +4187,35 @@
       <c r="J20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="M20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="S20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>329</v>
       </c>
@@ -4240,35 +4240,35 @@
       <c r="J21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="L21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="Q21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>330</v>
       </c>
@@ -4299,23 +4299,23 @@
       <c r="J22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>331</v>
       </c>
@@ -4346,33 +4346,33 @@
       <c r="J23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="P23" s="2" t="s">
         <v>138</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S23" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>332</v>
       </c>
@@ -4389,7 +4389,6 @@
       <c r="J24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4398,8 +4397,9 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>334</v>
       </c>
@@ -4430,19 +4430,16 @@
       <c r="J25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="L25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="N25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
         <v>138</v>
       </c>
@@ -4450,13 +4447,16 @@
         <v>138</v>
       </c>
       <c r="R25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>335</v>
       </c>
@@ -4487,35 +4487,35 @@
       <c r="J26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="M26" s="1" t="s">
         <v>138</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>336</v>
       </c>
@@ -4534,7 +4534,6 @@
         <v>138</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4542,11 +4541,12 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>336</v>
       </c>
@@ -4561,23 +4561,23 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
+      <c r="M28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>337</v>
       </c>
@@ -4594,23 +4594,23 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>338</v>
       </c>
@@ -4627,21 +4627,21 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>339</v>
       </c>
@@ -4672,35 +4672,35 @@
       <c r="J31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>184</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>340</v>
       </c>
@@ -4731,35 +4731,35 @@
       <c r="J32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>195</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>341</v>
       </c>
@@ -4780,7 +4780,6 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4789,8 +4788,9 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>529</v>
       </c>
@@ -4805,19 +4805,19 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>343</v>
       </c>
@@ -4846,31 +4846,31 @@
       <c r="J35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
+      <c r="N35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="Q35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>344</v>
       </c>
@@ -4887,21 +4887,21 @@
         <v>183</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="1"/>
+      <c r="T36" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>345</v>
       </c>
@@ -4916,19 +4916,19 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>346</v>
       </c>
@@ -4947,21 +4947,21 @@
         <v>171</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>346</v>
       </c>
@@ -4976,19 +4976,19 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>347</v>
       </c>
@@ -5005,19 +5005,19 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="1"/>
+      <c r="N40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>348</v>
       </c>
@@ -5034,19 +5034,19 @@
       <c r="J41" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>349</v>
       </c>
@@ -5061,19 +5061,19 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>350</v>
       </c>
@@ -5092,7 +5092,6 @@
         <v>168</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5100,11 +5099,12 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="2"/>
+      <c r="T43" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>351</v>
       </c>
@@ -5121,29 +5121,29 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="1"/>
+      <c r="N44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>195</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>352</v>
       </c>
@@ -5160,7 +5160,6 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5169,8 +5168,9 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>353</v>
       </c>
@@ -5187,7 +5187,6 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -5196,8 +5195,9 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>353</v>
       </c>
@@ -5224,7 +5224,6 @@
       <c r="J47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5233,8 +5232,9 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>354</v>
       </c>
@@ -5253,7 +5253,6 @@
       <c r="J48" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -5262,8 +5261,9 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>355</v>
       </c>
@@ -5278,21 +5278,21 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="2" t="s">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R49" s="2"/>
+      <c r="S49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>356</v>
       </c>
@@ -5307,19 +5307,19 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="1"/>
+      <c r="P50" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>357</v>
       </c>
@@ -5334,19 +5334,19 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="2" t="s">
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
@@ -5365,7 +5365,6 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -5374,8 +5373,9 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>359</v>
       </c>
@@ -5392,7 +5392,6 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -5401,8 +5400,9 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>359</v>
       </c>
@@ -5417,27 +5417,27 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="O54" s="1"/>
       <c r="P54" s="1" t="s">
         <v>138</v>
       </c>
       <c r="Q54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R54" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="S54" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>360</v>
       </c>
@@ -5454,7 +5454,6 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -5462,11 +5461,12 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
+      <c r="S55" s="2"/>
+      <c r="T55" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -5481,19 +5481,19 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="1"/>
+      <c r="O56" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>362</v>
       </c>
@@ -5508,19 +5508,19 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="2" t="s">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>363</v>
       </c>
@@ -5535,19 +5535,19 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="1"/>
+      <c r="O58" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>364</v>
       </c>
@@ -5562,7 +5562,6 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -5570,11 +5569,12 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="2" t="s">
+      <c r="S59" s="2"/>
+      <c r="T59" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>365</v>
       </c>
@@ -5591,7 +5591,6 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -5600,8 +5599,9 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>366</v>
       </c>
@@ -5618,7 +5618,6 @@
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -5627,8 +5626,9 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>367</v>
       </c>
@@ -5645,7 +5645,6 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -5654,8 +5653,9 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>368</v>
       </c>
@@ -5672,7 +5672,6 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -5681,8 +5680,9 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>369</v>
       </c>
@@ -5699,7 +5699,6 @@
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -5708,8 +5707,9 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>370</v>
       </c>
@@ -5724,19 +5724,19 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>371</v>
       </c>
@@ -5751,19 +5751,19 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1" t="s">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>372</v>
       </c>
@@ -5780,7 +5780,6 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -5789,8 +5788,9 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>373</v>
       </c>
@@ -5807,7 +5807,6 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -5816,8 +5815,9 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>374</v>
       </c>
@@ -5834,7 +5834,6 @@
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -5843,8 +5842,9 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>375</v>
       </c>
@@ -5861,7 +5861,6 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -5870,8 +5869,9 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>376</v>
       </c>
@@ -5888,7 +5888,6 @@
         <v>138</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -5897,8 +5896,9 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>377</v>
       </c>
@@ -5915,7 +5915,6 @@
       <c r="J72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -5924,8 +5923,9 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>378</v>
       </c>
@@ -5942,7 +5942,6 @@
       <c r="J73" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -5951,8 +5950,9 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>379</v>
       </c>
@@ -5967,10 +5967,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -5978,8 +5977,9 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>380</v>
       </c>
@@ -5994,19 +5994,19 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>466</v>
       </c>
@@ -6021,19 +6021,19 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>382</v>
       </c>
@@ -6048,7 +6048,6 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -6056,11 +6055,12 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-      <c r="S77" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S77" s="2"/>
+      <c r="T77" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>383</v>
       </c>
@@ -6077,7 +6077,6 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -6086,8 +6085,9 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>384</v>
       </c>
@@ -6102,10 +6102,9 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -6113,8 +6112,9 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>385</v>
       </c>
@@ -6129,19 +6129,19 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1" t="s">
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>386</v>
       </c>
@@ -6156,19 +6156,19 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
-      <c r="Q81" s="2" t="s">
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R81" s="2"/>
       <c r="S81" s="2"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>387</v>
       </c>
@@ -6183,19 +6183,19 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="Q82" s="1" t="s">
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>388</v>
       </c>
@@ -6210,44 +6210,44 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
-      <c r="Q83" s="2" t="s">
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R83" s="2"/>
       <c r="S83" s="2"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>544</v>
       </c>
@@ -15104,8 +15104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864AD9C7-A55D-4011-ADFF-3BF74D7C3BCB}">
   <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15227,9 +15227,6 @@
       <c r="J2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="L2" s="1" t="s">
         <v>133</v>
       </c>
@@ -15237,21 +15234,24 @@
         <v>133</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -15274,7 +15274,6 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -15283,6 +15282,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -15311,11 +15311,8 @@
       <c r="J4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>132</v>
@@ -15327,15 +15324,18 @@
         <v>132</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -15370,31 +15370,31 @@
       <c r="J5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>134</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -15429,31 +15429,31 @@
       <c r="J6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="Q6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -15488,31 +15488,31 @@
       <c r="J7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15547,31 +15547,31 @@
       <c r="J8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="Q8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15606,31 +15606,31 @@
       <c r="J9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>140</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -15665,31 +15665,31 @@
       <c r="J10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="N10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15722,31 +15722,31 @@
       <c r="J11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>106</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -15769,7 +15769,6 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -15778,6 +15777,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -15806,31 +15806,31 @@
       <c r="J13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>145</v>
       </c>
       <c r="S13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -15863,7 +15863,6 @@
         <v>145</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -15872,6 +15871,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -15888,27 +15888,27 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
         <v>138</v>
       </c>
       <c r="O15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -15943,35 +15943,35 @@
       <c r="J16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="N16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="Q16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>203</v>
       </c>
@@ -16002,23 +16002,23 @@
       <c r="J17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>205</v>
       </c>
@@ -16049,35 +16049,35 @@
       <c r="J18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="S18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>209</v>
       </c>
@@ -16108,35 +16108,35 @@
       <c r="J19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>211</v>
       </c>
@@ -16167,33 +16167,33 @@
       <c r="J20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>213</v>
       </c>
@@ -16224,35 +16224,35 @@
       <c r="J21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="N21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="Q21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>216</v>
       </c>
@@ -16283,33 +16283,33 @@
       <c r="J22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
         <v>138</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>218</v>
       </c>
@@ -16340,15 +16340,12 @@
       <c r="J23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="N23" s="2" t="s">
         <v>138</v>
       </c>
@@ -16356,19 +16353,22 @@
         <v>138</v>
       </c>
       <c r="P23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>222</v>
       </c>
@@ -16387,7 +16387,6 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -16396,8 +16395,9 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>222</v>
       </c>
@@ -16424,35 +16424,35 @@
       <c r="J25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="N25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>224</v>
       </c>
@@ -16483,35 +16483,35 @@
       <c r="J26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="O26" s="1" t="s">
         <v>138</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>226</v>
       </c>
@@ -16542,35 +16542,35 @@
       <c r="J27" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>228</v>
       </c>
@@ -16601,35 +16601,35 @@
       <c r="J28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>231</v>
       </c>
@@ -16660,35 +16660,35 @@
       <c r="J29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="L29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>234</v>
       </c>
@@ -16719,35 +16719,35 @@
       <c r="J30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>148</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>235</v>
       </c>
@@ -16778,35 +16778,35 @@
       <c r="J31" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="R31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>550</v>
       </c>
@@ -16837,35 +16837,35 @@
       <c r="J32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="M32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="O32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="Q32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>237</v>
       </c>
@@ -16892,7 +16892,6 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -16901,8 +16900,9 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>237</v>
       </c>
@@ -16917,21 +16917,21 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>239</v>
       </c>
@@ -16946,21 +16946,21 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S35" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>240</v>
       </c>
@@ -16987,25 +16987,25 @@
       <c r="J36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>241</v>
       </c>
@@ -17022,7 +17022,6 @@
       <c r="J37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -17031,8 +17030,9 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>242</v>
       </c>
@@ -17047,19 +17047,19 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>244</v>
       </c>
@@ -17086,35 +17086,35 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="S39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S39" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>245</v>
       </c>
@@ -17145,23 +17145,23 @@
       <c r="J40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>247</v>
       </c>
@@ -17176,31 +17176,31 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q41" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="R41" s="2" t="s">
         <v>138</v>
       </c>
       <c r="S41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T41" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>249</v>
       </c>
@@ -17215,19 +17215,19 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>251</v>
       </c>
@@ -17258,31 +17258,31 @@
       <c r="J43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="Q43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="S43" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>252</v>
       </c>
@@ -17313,21 +17313,21 @@
       <c r="J44" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>254</v>
       </c>
@@ -17358,35 +17358,35 @@
       <c r="J45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>230</v>
       </c>
       <c r="R45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S45" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>256</v>
       </c>
@@ -17405,21 +17405,21 @@
       <c r="J46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>256</v>
       </c>
@@ -17434,19 +17434,19 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>258</v>
       </c>
@@ -17477,7 +17477,6 @@
       <c r="J48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -17486,8 +17485,9 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>258</v>
       </c>
@@ -17502,10 +17502,9 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -17513,8 +17512,9 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>258</v>
       </c>
@@ -17529,21 +17529,21 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="1"/>
+      <c r="N50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>260</v>
       </c>
@@ -17574,35 +17574,35 @@
       <c r="J51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="R51" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R51" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S51" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>262</v>
       </c>
@@ -17617,21 +17617,21 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="1"/>
+      <c r="T52" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>264</v>
       </c>
@@ -17646,21 +17646,21 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R53" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>264</v>
       </c>
@@ -17675,7 +17675,6 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -17683,11 +17682,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1" t="s">
+      <c r="S54" s="1"/>
+      <c r="T54" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>151</v>
       </c>
@@ -17702,19 +17702,19 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>266</v>
       </c>
@@ -17731,7 +17731,6 @@
         <v>171</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -17740,8 +17739,9 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>267</v>
       </c>
@@ -17758,7 +17758,6 @@
         <v>183</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -17767,8 +17766,9 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>267</v>
       </c>
@@ -17785,31 +17785,31 @@
       <c r="J58" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="M58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="O58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="R58" s="1"/>
       <c r="S58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T58" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>268</v>
       </c>
@@ -17826,7 +17826,6 @@
         <v>138</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -17835,8 +17834,9 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>268</v>
       </c>
@@ -17851,21 +17851,21 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1" t="s">
+      <c r="R60" s="1"/>
+      <c r="S60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="S60" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>269</v>
       </c>
@@ -17896,33 +17896,33 @@
       <c r="J61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2" t="s">
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O61" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="P61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="R61" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="S61" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>269</v>
       </c>
@@ -17937,19 +17937,19 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="1"/>
+      <c r="N62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>270</v>
       </c>
@@ -17966,19 +17966,19 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>271</v>
       </c>
@@ -17993,19 +17993,19 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1" t="s">
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>272</v>
       </c>
@@ -18020,19 +18020,19 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>272</v>
       </c>
@@ -18047,25 +18047,25 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1" t="s">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S66" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>273</v>
       </c>
@@ -18082,7 +18082,6 @@
       <c r="J67" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -18091,8 +18090,9 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>275</v>
       </c>
@@ -18107,19 +18107,19 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="1" t="s">
+      <c r="N68" s="1"/>
+      <c r="O68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>276</v>
       </c>
@@ -18144,35 +18144,35 @@
       <c r="J69" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="O69" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="P69" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="Q69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R69" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="S69" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="S69" s="2" t="s">
+      <c r="T69" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>277</v>
       </c>
@@ -18203,7 +18203,6 @@
       <c r="J70" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -18212,8 +18211,9 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>278</v>
       </c>
@@ -18228,12 +18228,9 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
         <v>207</v>
       </c>
@@ -18241,12 +18238,15 @@
         <v>207</v>
       </c>
       <c r="Q71" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R71" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>279</v>
       </c>
@@ -18275,7 +18275,6 @@
         <v>138</v>
       </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -18284,8 +18283,9 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>280</v>
       </c>
@@ -18306,7 +18306,6 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -18315,8 +18314,9 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>281</v>
       </c>
@@ -18331,19 +18331,19 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1" t="s">
+      <c r="M74" s="1"/>
+      <c r="N74" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>282</v>
       </c>
@@ -18370,35 +18370,35 @@
       <c r="J75" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L75" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="M75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N75" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="Q75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="R75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="S75" s="2" t="s">
+      <c r="T75" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>283</v>
       </c>
@@ -18413,27 +18413,27 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="O76" s="1"/>
       <c r="P76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q76" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="R76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S76" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>284</v>
       </c>
@@ -18450,7 +18450,6 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -18459,8 +18458,9 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>285</v>
       </c>
@@ -18475,19 +18475,19 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1" t="s">
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>286</v>
       </c>
@@ -18502,19 +18502,19 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
-      <c r="O79" s="2" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>288</v>
       </c>
@@ -18531,7 +18531,6 @@
         <v>138</v>
       </c>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -18540,8 +18539,9 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>288</v>
       </c>
@@ -18556,19 +18556,19 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S81" s="2"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R81" s="2"/>
+      <c r="S81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>289</v>
       </c>
@@ -18585,7 +18585,6 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -18594,8 +18593,9 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>290</v>
       </c>
@@ -18610,10 +18610,9 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -18621,8 +18620,9 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>291</v>
       </c>
@@ -18637,19 +18637,19 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="Q84" s="1" t="s">
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>293</v>
       </c>
@@ -18664,29 +18664,29 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
-      <c r="O85" s="2" t="s">
+      <c r="O85" s="2"/>
+      <c r="P85" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>543</v>
       </c>
